--- a/biology/Botanique/Cactus_rustique/Cactus_rustique.xlsx
+++ b/biology/Botanique/Cactus_rustique/Cactus_rustique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cactus rustique[2] (Cylindropuntia imbricata) est une plante du Mexique et du sud-ouest des États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cactus rustique (Cylindropuntia imbricata) est une plante du Mexique et du sud-ouest des États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante arborescente qui peut atteindre de 3 à 5 mètres de haut. Le cladodes (tiges modifiées, de forme aplatie) terminaux ont 2 à 3 cm d'épaisseur. Unis les uns aux autres, ils tendent à former des branches ; ceux de la base se lignifient au fil des années pour former un véritable tronc. Les feuilles, cylindriques, de 8 à 22 mm de long sont éphémères. Les aiguillons ("épines") sont bruns, de 2 à 3 cm de longueur. Les fleurs, de 4 à 6 cm de longueur et de 8 à 9 cm de diamètre, de couleur rose-rouge à rouge carmin, sont groupée à l'apex du rameau. Le fruit est jaunâtre, très mamelonné et porte peu d'aiguillons.
 floraison
